--- a/finalProject/school_db/structure_db.xlsx
+++ b/finalProject/school_db/structure_db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikitamoskalev/GeekBrains/database/finalProject/school_db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE9443D-90CD-E847-8013-C56614FACFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D38FAA-6EDD-C14C-9EE6-555DCE6A360E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1980" yWindow="500" windowWidth="26440" windowHeight="16900" xr2:uid="{7CF4491C-3C4D-5140-B389-B5A780F86953}"/>
   </bookViews>
@@ -653,7 +653,7 @@
   <dimension ref="A2:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -839,23 +839,23 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="19">
-      <c r="A17" s="11" t="s">
-        <v>16</v>
+      <c r="A17" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="19">
       <c r="A18" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="19">
       <c r="A19" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="19">
-      <c r="A20" s="5" t="s">
-        <v>48</v>
+      <c r="A20" s="11" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="19">
